--- a/data/trans_camb/P25A_8_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_8_R2-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,03</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,96</t>
+          <t>-3,98</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>3,73</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-3,5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 5,38</t>
+          <t>-17,48; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 11,09</t>
+          <t>-8,78; 12,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,53; -1,12</t>
+          <t>-8,88; 9,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,97; -0,77</t>
+          <t>-13,89; 2,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 0,25</t>
+          <t>-10,98; 7,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 2,38</t>
+          <t>-6,71; 16,02</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-10,75; 0,79</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,39; 7,49</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-5,3; 9,78</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>61,97%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>292,63%</t>
+          <t>61,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-70,49%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-69,65%</t>
+          <t>-56,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-55,32%</t>
+          <t>-20,31%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-30,28%</t>
+          <t>53,35%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-68,97%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>47,29%</t>
         </is>
       </c>
     </row>
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-93,77; 0,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-93,86; 1,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-89,69; 24,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-76,75; 95,9</t>
+          <t>-70,96; 693,98</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-77,41; 381,82</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-66,25; 383,87</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>7,23</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>5,13</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,33</t>
+          <t>-4,64; 4,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 2,55</t>
+          <t>-4,94; 4,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 4,55</t>
+          <t>-2,3; 9,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 8,28</t>
+          <t>-2,37; 5,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 2,54</t>
+          <t>-2,66; 4,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 4,26</t>
+          <t>2,69; 13,5</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 3,61</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,26; 3,56</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,82; 10,02</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-17,8%</t>
+          <t>-5,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-9,04%</t>
+          <t>-14,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>76,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>76,28%</t>
+          <t>46,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>36,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
+          <t>215,08%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18,33%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8,89%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>139,42%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-86,46; 178,26</t>
+          <t>-75,99; 245,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-74,59; 215,61</t>
+          <t>-82,61; 256,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,89; 186,67</t>
+          <t>-46,92; 507,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 348,63</t>
+          <t>-51,41; 339,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-44,38; 110,94</t>
+          <t>-56,18; 282,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,42; 194,78</t>
+          <t>39,38; 746,35</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-46,79; 150,01</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-48,15; 141,9</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>31,89; 424,2</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>4,75</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,02</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,38</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,2</t>
+          <t>-2,52; 7,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 9,44</t>
+          <t>-0,3; 15,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 5,33</t>
+          <t>0,68; 13,75</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 7,39</t>
+          <t>-2,47; 7,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 3,51</t>
+          <t>-0,5; 11,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 6,98</t>
+          <t>-0,18; 10,41</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 5,4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,27; 9,91</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 9,39</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>82,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>112,95%</t>
+          <t>195,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>232,14%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>64,79%</t>
+          <t>50,76%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>122,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>80,99%</t>
+          <t>118,28%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>60,86%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>146,64%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>157,08%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-68,81; 317,43</t>
+          <t>-71,56; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,35; 678,08</t>
+          <t>-43,39; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,16; 187,34</t>
+          <t>-24,96; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 245,74</t>
+          <t>-47,59; 358,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-35,61; 124,67</t>
+          <t>-20,23; 482,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 258,35</t>
+          <t>-13,89; 455,93</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-30,76; 273,88</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>16,52; 493,82</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>25,95; 480,3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 3,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 1,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 4,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 3,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>56,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-5,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>33,86%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-51,71; 120,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,18; 231,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-45,88; 51,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 107,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,72; 46,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 102,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3,82</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5,81</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,93; 2,92</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 5,55</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,0; 7,53</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,57; 3,99</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 5,61</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2,11; 9,49</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 2,83</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,03; 4,64</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2,3; 7,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>8,79%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>54,82%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>113,53%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>23,93%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>56,4%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>140,7%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>17,11%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>54,96%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>127,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-59,38; 149,04</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-39,86; 264,11</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-6,37; 371,28</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-31,84; 145,84</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-15,55; 181,98</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>35,77; 324,76</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-28,29; 102,43</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 161,49</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>44,95; 268,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
